--- a/竣工资料/12/12#  2.分项工程验收记录.xlsx
+++ b/竣工资料/12/12#  2.分项工程验收记录.xlsx
@@ -10,14 +10,14 @@
     <sheet name="1" sheetId="1" r:id="rId1"/>
     <sheet name="2" sheetId="2" r:id="rId2"/>
     <sheet name="3" sheetId="3" r:id="rId3"/>
-    <sheet name="3 (2)" sheetId="4" r:id="rId4"/>
+    <sheet name="4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="36">
   <si>
     <t>混凝土灌注桩工程</t>
   </si>
@@ -87,7 +87,7 @@
     <t>监理（建设）单位验收意见</t>
   </si>
   <si>
-    <t>12#楼桩基础</t>
+    <t>泥浆护壁成孔灌注桩22根</t>
   </si>
   <si>
     <t>合格</t>
@@ -126,103 +126,13 @@
     <t>混凝土灌注桩（钢筋笼）</t>
   </si>
   <si>
-    <t>临汾碧桂园一期12#楼桩基础工程(灌注桩）</t>
-  </si>
-  <si>
-    <t>山西海固通地基工程有限公司</t>
-  </si>
-  <si>
-    <t>钟碧莲</t>
-  </si>
-  <si>
-    <t>李永华</t>
-  </si>
-  <si>
-    <t>163、161、162、164、165、171、172、174、175、173、166、167、169、170、168</t>
-  </si>
-  <si>
-    <t>1、2、3、4、5、6、7、8、9、10、11、12、13、14、15、16、17、18、19、20</t>
-  </si>
-  <si>
-    <t>21、22、23、24、25、26、27、28、29、30、31、32、33、34、35、36、37、38、39、40</t>
-  </si>
-  <si>
-    <t>41、42、43、44、45、46、47、48、49、50、51、52、53、54、55、60、61、62、63、64</t>
-  </si>
-  <si>
-    <t>73、74、75、76、77、79、80、69、70、71、72、109、110、111、112、113、114、85、86</t>
-  </si>
-  <si>
-    <t>87、88、56、57、58、59、81、82、83、84、99、100、65、66、67、68、89、90、91、92</t>
-  </si>
-  <si>
-    <t>93、94、131、132、133、134、135、128、129、130、105、106、107、108、119、120、121、122、101、102</t>
-  </si>
-  <si>
-    <t>103、104、95、96、97、98、123、124、125、126、127、115、116、117、118、136、137、138、139、140</t>
-  </si>
-  <si>
-    <t>141、142、143、144、145、146、147、148、149、150、151、152、153、154、155、156、157、158、159、160</t>
+    <t>20、17、22、8、13、12、7、6、5、4、9、10、15、16、21、11、14、18、19、1、2、3</t>
   </si>
   <si>
     <t>混凝土灌注桩后注浆</t>
   </si>
   <si>
-    <t>GCZ163、GCZ161、GCZ162</t>
-  </si>
-  <si>
-    <t>GCZ164、GCZ165、GCZ171、GCZ172、GCZ174、GCZ175</t>
-  </si>
-  <si>
-    <t>GCZ173、GCZ166、GCZ167、GCZ169、GCZ170、GCZ168</t>
-  </si>
-  <si>
-    <t>GCZ1、GCZ2、GCZ3、GCZ4、GCZ5、GCZ6、GCZ7、GCZ8、GCZ9</t>
-  </si>
-  <si>
-    <t>GCZ10、GCZ11、GCZ12、GCZ13、GCZ14、GCZ15、GCZ16、GCZ17、GCZ18、GCZ19、GCZ20、GCZ21、GCZ22、GCZ23、GCZ24</t>
-  </si>
-  <si>
-    <t>GCZ25、GCZ26、GCZ27、GCZ28、GCZ29、GCZ30、GCZ31、GCZ32、GCZ33、GCZ34、GCZ35、GCZ36</t>
-  </si>
-  <si>
-    <t>GCZ37、GCZ38、GCZ39、GCZ40、GCZ41、GCZ42、GCZ43、GCZ44、GCZ45、GCZ46、GCZ47、GCZ48、GCZ49、GCZ50、GCZ51</t>
-  </si>
-  <si>
-    <t>GCZ52、GCZ53、GCZ54、GCZ55、GCZ60、GCZ61、GCZ62、GCZ63、GCZ64、GCZ73</t>
-  </si>
-  <si>
-    <t>GCZ74、GCZ75、GCZ76、GCZ77、GCZ78、GCZ79、GCZ80</t>
-  </si>
-  <si>
-    <t>GCZ69、GCZ70、GCZ71、GCZ72、GCZ109、GCZ110、GCZ111、GCZ112、GCZ113、GCZ114、GCZ85、GCZ86、GCZ87、GCZ88</t>
-  </si>
-  <si>
-    <t>GCZ56、GCZ57、GCZ58、GCZ59、GCZ81、GCZ82</t>
-  </si>
-  <si>
-    <t>GCZ83、GCZ84、GCZ99、GCZ100、GCZ65、GCZ66、GCZ67、GCZ68、GCZ89、GCZ90、GCZ91、GCZ92、GCZ93、GCZ94、GCCZ131</t>
-  </si>
-  <si>
-    <t>GCZ132、GCZ133、GCZ134、GCZ135、GCZ128、GCZ129、GCZ130、GCZ105、GCZ106、GCZ107、GCZ108</t>
-  </si>
-  <si>
-    <t>GCZ119、GCZ120、GCZ121、GCZ122、GCZ101、GCZ102、GCZ103、GCZ104</t>
-  </si>
-  <si>
-    <t>GCZ95、GCZ96、GCZ97、GCZ98、GCZ123、GCZ124、GCZ125</t>
-  </si>
-  <si>
-    <t>GCZ126、GCZ127、GCZ115、GCZ116、GCZ117、GCZ118、GCZ136、GCZ137、GCZ138、GCZ139、GCZ140</t>
-  </si>
-  <si>
-    <t>GCZ141、GCZ142、GCZ143、GCZ144、GCZ145、GCZ146、GCZ147</t>
-  </si>
-  <si>
-    <t>GCZ148、GCZ149、GCZ150、GCZ151、GCZ152、GCZ153、GCZ154</t>
-  </si>
-  <si>
-    <t>GCZ155、GCZ156、GCZ157、GCZ158、GCZ159、GCZ160</t>
+    <t>混凝土施工工程</t>
   </si>
 </sst>
 </file>
@@ -230,10 +140,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -289,15 +199,52 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -319,13 +266,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -339,30 +281,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -377,8 +326,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -399,47 +348,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -460,103 +370,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,7 +394,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,19 +508,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,31 +526,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,25 +928,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1071,17 +972,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1103,152 +1024,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1802,7 +1712,7 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD12" sqref="AD12"/>
+      <selection activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14814814814815" defaultRowHeight="14.25" customHeight="1"/>
@@ -2870,8 +2780,8 @@
   <sheetPr/>
   <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10:Z19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14814814814815" defaultRowHeight="14.25" customHeight="1"/>
@@ -3005,7 +2915,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -3063,7 +2973,7 @@
       <c r="U6" s="11"/>
       <c r="V6" s="11"/>
       <c r="W6" s="11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
@@ -3077,7 +2987,7 @@
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="14" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -3090,7 +3000,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -3103,7 +3013,7 @@
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
       <c r="W7" s="11" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
@@ -3185,7 +3095,7 @@
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -3213,14 +3123,10 @@
       <c r="Y10" s="16"/>
       <c r="Z10" s="46"/>
     </row>
-    <row r="11" ht="36" customHeight="1" spans="1:26">
-      <c r="A11" s="10">
-        <v>2</v>
-      </c>
+    <row r="11" ht="30" customHeight="1" spans="1:26">
+      <c r="A11" s="10"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -3229,9 +3135,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
@@ -3247,14 +3151,10 @@
       <c r="Y11" s="16"/>
       <c r="Z11" s="46"/>
     </row>
-    <row r="12" ht="36" customHeight="1" spans="1:26">
-      <c r="A12" s="10">
-        <v>3</v>
-      </c>
+    <row r="12" ht="30" customHeight="1" spans="1:26">
+      <c r="A12" s="10"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -3263,9 +3163,7 @@
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
-      <c r="L12" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
@@ -3281,14 +3179,10 @@
       <c r="Y12" s="16"/>
       <c r="Z12" s="46"/>
     </row>
-    <row r="13" ht="36" customHeight="1" spans="1:26">
-      <c r="A13" s="10">
-        <v>4</v>
-      </c>
+    <row r="13" ht="30" customHeight="1" spans="1:26">
+      <c r="A13" s="10"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -3297,9 +3191,7 @@
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="L13" s="11"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
@@ -3315,14 +3207,10 @@
       <c r="Y13" s="16"/>
       <c r="Z13" s="46"/>
     </row>
-    <row r="14" ht="36" customHeight="1" spans="1:26">
-      <c r="A14" s="10">
-        <v>5</v>
-      </c>
+    <row r="14" ht="30" customHeight="1" spans="1:26">
+      <c r="A14" s="10"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="12" t="s">
-        <v>41</v>
-      </c>
+      <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -3331,9 +3219,7 @@
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
-      <c r="L14" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="L14" s="11"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -3349,14 +3235,10 @@
       <c r="Y14" s="16"/>
       <c r="Z14" s="46"/>
     </row>
-    <row r="15" ht="36" customHeight="1" spans="1:26">
-      <c r="A15" s="10">
-        <v>6</v>
-      </c>
+    <row r="15" ht="30" customHeight="1" spans="1:26">
+      <c r="A15" s="10"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="12" t="s">
-        <v>42</v>
-      </c>
+      <c r="C15" s="12"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -3365,9 +3247,7 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="L15" s="11"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
@@ -3383,14 +3263,10 @@
       <c r="Y15" s="16"/>
       <c r="Z15" s="46"/>
     </row>
-    <row r="16" ht="36" customHeight="1" spans="1:26">
-      <c r="A16" s="10">
-        <v>7</v>
-      </c>
+    <row r="16" ht="30" customHeight="1" spans="1:26">
+      <c r="A16" s="10"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="12" t="s">
-        <v>43</v>
-      </c>
+      <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -3399,9 +3275,7 @@
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
-      <c r="L16" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="L16" s="11"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
@@ -3417,14 +3291,10 @@
       <c r="Y16" s="16"/>
       <c r="Z16" s="46"/>
     </row>
-    <row r="17" ht="36" customHeight="1" spans="1:26">
-      <c r="A17" s="10">
-        <v>8</v>
-      </c>
+    <row r="17" ht="30" customHeight="1" spans="1:26">
+      <c r="A17" s="10"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="12" t="s">
-        <v>44</v>
-      </c>
+      <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -3433,9 +3303,7 @@
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="L17" s="11"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
@@ -3451,14 +3319,10 @@
       <c r="Y17" s="16"/>
       <c r="Z17" s="46"/>
     </row>
-    <row r="18" ht="37" customHeight="1" spans="1:26">
-      <c r="A18" s="10">
-        <v>9</v>
-      </c>
+    <row r="18" ht="30" customHeight="1" spans="1:26">
+      <c r="A18" s="10"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -3467,9 +3331,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
-      <c r="L18" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="L18" s="11"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
@@ -3485,7 +3347,7 @@
       <c r="Y18" s="16"/>
       <c r="Z18" s="46"/>
     </row>
-    <row r="19" ht="24.6" customHeight="1" spans="1:26">
+    <row r="19" ht="30" customHeight="1" spans="1:26">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
@@ -3926,7 +3788,7 @@
   <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S10" sqref="S10:Z19"/>
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14814814814815" defaultRowHeight="14.25" customHeight="1"/>
@@ -3939,7 +3801,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -4060,7 +3922,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -4086,7 +3948,7 @@
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
       <c r="W5" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
@@ -4118,7 +3980,7 @@
       <c r="U6" s="11"/>
       <c r="V6" s="11"/>
       <c r="W6" s="11">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
@@ -4132,7 +3994,7 @@
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="14" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -4145,7 +4007,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -4158,7 +4020,7 @@
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
       <c r="W7" s="11" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
@@ -4234,13 +4096,13 @@
       <c r="Y9" s="11"/>
       <c r="Z9" s="44"/>
     </row>
-    <row r="10" ht="25" customHeight="1" spans="1:26">
+    <row r="10" ht="40" customHeight="1" spans="1:26">
       <c r="A10" s="10">
         <v>1</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="12" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -4269,13 +4131,9 @@
       <c r="Z10" s="46"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:26">
-      <c r="A11" s="10">
-        <v>2</v>
-      </c>
+      <c r="A11" s="10"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="12" t="s">
-        <v>48</v>
-      </c>
+      <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -4284,9 +4142,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
@@ -4303,13 +4159,9 @@
       <c r="Z11" s="46"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:26">
-      <c r="A12" s="10">
-        <v>3</v>
-      </c>
+      <c r="A12" s="10"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="12" t="s">
-        <v>49</v>
-      </c>
+      <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -4318,9 +4170,7 @@
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
-      <c r="L12" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
@@ -4337,13 +4187,9 @@
       <c r="Z12" s="46"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:26">
-      <c r="A13" s="10">
-        <v>4</v>
-      </c>
+      <c r="A13" s="10"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="12" t="s">
-        <v>50</v>
-      </c>
+      <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -4352,9 +4198,7 @@
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="L13" s="11"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
@@ -4370,14 +4214,10 @@
       <c r="Y13" s="16"/>
       <c r="Z13" s="46"/>
     </row>
-    <row r="14" ht="50" customHeight="1" spans="1:26">
-      <c r="A14" s="10">
-        <v>5</v>
-      </c>
+    <row r="14" ht="30" customHeight="1" spans="1:26">
+      <c r="A14" s="10"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="12" t="s">
-        <v>51</v>
-      </c>
+      <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -4386,9 +4226,7 @@
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
-      <c r="L14" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="L14" s="11"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -4404,14 +4242,10 @@
       <c r="Y14" s="16"/>
       <c r="Z14" s="46"/>
     </row>
-    <row r="15" ht="40" customHeight="1" spans="1:26">
-      <c r="A15" s="10">
-        <v>6</v>
-      </c>
+    <row r="15" ht="30" customHeight="1" spans="1:26">
+      <c r="A15" s="10"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="12" t="s">
-        <v>52</v>
-      </c>
+      <c r="C15" s="12"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -4420,9 +4254,7 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="L15" s="11"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
@@ -4438,14 +4270,10 @@
       <c r="Y15" s="16"/>
       <c r="Z15" s="46"/>
     </row>
-    <row r="16" ht="50" customHeight="1" spans="1:26">
-      <c r="A16" s="10">
-        <v>7</v>
-      </c>
+    <row r="16" ht="30" customHeight="1" spans="1:26">
+      <c r="A16" s="10"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -4454,9 +4282,7 @@
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
-      <c r="L16" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="L16" s="11"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
@@ -4472,14 +4298,10 @@
       <c r="Y16" s="16"/>
       <c r="Z16" s="46"/>
     </row>
-    <row r="17" ht="40" customHeight="1" spans="1:26">
-      <c r="A17" s="10">
-        <v>8</v>
-      </c>
+    <row r="17" ht="30" customHeight="1" spans="1:26">
+      <c r="A17" s="10"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="12" t="s">
-        <v>54</v>
-      </c>
+      <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -4488,9 +4310,7 @@
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="L17" s="11"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
@@ -4507,13 +4327,9 @@
       <c r="Z17" s="46"/>
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:26">
-      <c r="A18" s="10">
-        <v>9</v>
-      </c>
+      <c r="A18" s="10"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="12" t="s">
-        <v>55</v>
-      </c>
+      <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -4538,14 +4354,10 @@
       <c r="Y18" s="16"/>
       <c r="Z18" s="46"/>
     </row>
-    <row r="19" ht="50" customHeight="1" spans="1:26">
-      <c r="A19" s="10">
-        <v>10</v>
-      </c>
+    <row r="19" ht="30" customHeight="1" spans="1:26">
+      <c r="A19" s="10"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="12" t="s">
-        <v>56</v>
-      </c>
+      <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -4982,8 +4794,8 @@
   <sheetPr/>
   <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S10" sqref="S10:Z19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14814814814815" defaultRowHeight="14.25" customHeight="1"/>
@@ -4996,7 +4808,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -5117,7 +4929,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -5143,7 +4955,7 @@
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
       <c r="W5" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
@@ -5175,7 +4987,7 @@
       <c r="U6" s="11"/>
       <c r="V6" s="11"/>
       <c r="W6" s="11">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
@@ -5189,7 +5001,7 @@
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="14" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -5202,7 +5014,7 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -5215,7 +5027,7 @@
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
       <c r="W7" s="11" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
@@ -5291,13 +5103,13 @@
       <c r="Y9" s="11"/>
       <c r="Z9" s="44"/>
     </row>
-    <row r="10" ht="25" customHeight="1" spans="1:26">
+    <row r="10" ht="43" customHeight="1" spans="1:26">
       <c r="A10" s="10">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="12" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -5325,14 +5137,10 @@
       <c r="Y10" s="16"/>
       <c r="Z10" s="46"/>
     </row>
-    <row r="11" ht="50" customHeight="1" spans="1:26">
-      <c r="A11" s="10">
-        <v>12</v>
-      </c>
+    <row r="11" ht="30" customHeight="1" spans="1:26">
+      <c r="A11" s="10"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="12" t="s">
-        <v>58</v>
-      </c>
+      <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -5341,9 +5149,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
-      <c r="L11" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
@@ -5359,14 +5165,10 @@
       <c r="Y11" s="16"/>
       <c r="Z11" s="46"/>
     </row>
-    <row r="12" ht="40" customHeight="1" spans="1:26">
-      <c r="A12" s="10">
-        <v>13</v>
-      </c>
+    <row r="12" ht="30" customHeight="1" spans="1:26">
+      <c r="A12" s="10"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="12" t="s">
-        <v>59</v>
-      </c>
+      <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -5375,9 +5177,7 @@
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
-      <c r="L12" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
@@ -5394,13 +5194,9 @@
       <c r="Z12" s="46"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:26">
-      <c r="A13" s="10">
-        <v>14</v>
-      </c>
+      <c r="A13" s="10"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="12" t="s">
-        <v>60</v>
-      </c>
+      <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -5409,9 +5205,7 @@
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="L13" s="11"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
@@ -5427,14 +5221,10 @@
       <c r="Y13" s="16"/>
       <c r="Z13" s="46"/>
     </row>
-    <row r="14" ht="25" customHeight="1" spans="1:26">
-      <c r="A14" s="10">
-        <v>15</v>
-      </c>
+    <row r="14" ht="30" customHeight="1" spans="1:26">
+      <c r="A14" s="10"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -5443,9 +5233,7 @@
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
-      <c r="L14" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="L14" s="11"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -5461,14 +5249,10 @@
       <c r="Y14" s="16"/>
       <c r="Z14" s="46"/>
     </row>
-    <row r="15" ht="40" customHeight="1" spans="1:26">
-      <c r="A15" s="10">
-        <v>16</v>
-      </c>
+    <row r="15" ht="30" customHeight="1" spans="1:26">
+      <c r="A15" s="10"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="12" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="12"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -5477,9 +5261,7 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="L15" s="11"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
@@ -5495,14 +5277,10 @@
       <c r="Y15" s="16"/>
       <c r="Z15" s="46"/>
     </row>
-    <row r="16" ht="25" customHeight="1" spans="1:26">
-      <c r="A16" s="10">
-        <v>17</v>
-      </c>
+    <row r="16" ht="30" customHeight="1" spans="1:26">
+      <c r="A16" s="10"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="12" t="s">
-        <v>63</v>
-      </c>
+      <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -5511,9 +5289,7 @@
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
-      <c r="L16" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="L16" s="11"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
@@ -5529,14 +5305,10 @@
       <c r="Y16" s="16"/>
       <c r="Z16" s="46"/>
     </row>
-    <row r="17" ht="25" customHeight="1" spans="1:26">
-      <c r="A17" s="10">
-        <v>18</v>
-      </c>
+    <row r="17" ht="30" customHeight="1" spans="1:26">
+      <c r="A17" s="10"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="12" t="s">
-        <v>64</v>
-      </c>
+      <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -5545,9 +5317,7 @@
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="L17" s="11"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
@@ -5564,13 +5334,9 @@
       <c r="Z17" s="46"/>
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:26">
-      <c r="A18" s="10">
-        <v>19</v>
-      </c>
+      <c r="A18" s="10"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="12" t="s">
-        <v>65</v>
-      </c>
+      <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -5579,9 +5345,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
-      <c r="L18" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="L18" s="11"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
@@ -5597,7 +5361,7 @@
       <c r="Y18" s="16"/>
       <c r="Z18" s="46"/>
     </row>
-    <row r="19" ht="50" customHeight="1" spans="1:26">
+    <row r="19" ht="30" customHeight="1" spans="1:26">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
